--- a/excel/test#测试文件.xlsx
+++ b/excel/test#测试文件.xlsx
@@ -662,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
